--- a/biology/Zoologie/Barbus_apleurogramma/Barbus_apleurogramma.xlsx
+++ b/biology/Zoologie/Barbus_apleurogramma/Barbus_apleurogramma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbus apleurogramma (nom commun anglais : East african red finned barb[5]) est une espèce de poisson du genre Barbus appartenant à la famille des cyprinidés.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbus apleurogramma (nom commun anglais : East african red finned barb) est une espèce de poisson du genre Barbus appartenant à la famille des cyprinidés.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbus apleurogramma est un petit poisson d'eau douce (taille maximale connue : 54 mm[5]). Il se nourrit de larves d'insectes[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbus apleurogramma est un petit poisson d'eau douce (taille maximale connue : 54 mm). Il se nourrit de larves d'insectes.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Barbus apleurogramma[5] est très largement distribué en Afrique. On le rencontre dans les bassins des lacs Victoria, Édouard, Kivu, Tanganyika, Rukwa, et des rivières Achwa, Rusizi, Malagarasi ainsi que dans les rivières côtières du Kenya et de la Tanzanie, dans la partie supérieure du Congo et dans les cours d'eau du plateau de l'Ennedi au Tchad.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Barbus apleurogramma est très largement distribué en Afrique. On le rencontre dans les bassins des lacs Victoria, Édouard, Kivu, Tanganyika, Rukwa, et des rivières Achwa, Rusizi, Malagarasi ainsi que dans les rivières côtières du Kenya et de la Tanzanie, dans la partie supérieure du Congo et dans les cours d'eau du plateau de l'Ennedi au Tchad.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Barbus apleurogramma possède de très nombreux synonymes :
 Agrammobarbus babaulti (Pellegrin, 1935)
